--- a/api_test.xlsx
+++ b/api_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8520"/>
+    <workbookView windowWidth="28245" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="137">
   <si>
     <t>case_id</t>
   </si>
@@ -79,10 +79,10 @@
     <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
   </si>
   <si>
-    <t>{"mobilephone":"17512541270", "pwd":"123456", "nickname":"None"}</t>
-  </si>
-  <si>
-    <t>{"status":"1", "code":"10001", "data":"null", "msg":"成功"}</t>
+    <t>{"mobilephone": "17512541270", "pwd": "123456"}</t>
+  </si>
+  <si>
+    <t>{"status": "1", "code": "10001", "data": "null", "msg": "成功"}</t>
   </si>
   <si>
     <t>null</t>
@@ -94,7 +94,7 @@
     <t>注册成功，昵称不为空</t>
   </si>
   <si>
-    <t>{"mobilephone":"17512541271", "pwd":"123456", "nickname":"${nickname1}"}</t>
+    <t>{"mobilephone": "17512541271", "pwd": "123456", "regname": "${nickname1}"}</t>
   </si>
   <si>
     <t>${nickname1}</t>
@@ -103,10 +103,10 @@
     <t>注册失败，手机号码为空</t>
   </si>
   <si>
-    <t>{"mobilephone":"None", "pwd":"123456", "nickname":"${nickname1}"}</t>
-  </si>
-  <si>
-    <t>{"status":"0", "code":"20103", "data":"null", "msg":"参数错误：参数不能为空"}</t>
+    <t>{"pwd": "123456", "regname": "${nickname1}"}</t>
+  </si>
+  <si>
+    <t>{"status": "0", "code": "20103", "data": "null", "msg": "参数错误：参数不能为空"}</t>
   </si>
   <si>
     <t>参数错误：参数不能为空</t>
@@ -115,16 +115,16 @@
     <t>注册失败，密码为空</t>
   </si>
   <si>
-    <t>{"mobilephone":"17512541272", "pwd":"None", "nickname":"${nickname1}"}</t>
+    <t>{"mobilephone": "17512541272", "regname": "${nickname1}"}</t>
   </si>
   <si>
     <t>注册失败，密码长度过短</t>
   </si>
   <si>
-    <t>{"mobilephone":"17512541273", "pwd":"123", "nickname":"${nickname1}"}</t>
-  </si>
-  <si>
-    <t>{"status":"0", "code":"20108", "data":"null", "msg":"密码长度必须为 6~18"}</t>
+    <t>{"mobilephone": "17512541273", "pwd": "123", "regname": "${nickname1}"}</t>
+  </si>
+  <si>
+    <t>{"status": "0", "code": "20108", "data": "null", "msg": "密码长度必须为 6~18"}</t>
   </si>
   <si>
     <t>密码长度必须为 6~18</t>
@@ -133,7 +133,7 @@
     <t>注册失败，密码长度过长</t>
   </si>
   <si>
-    <t>{"mobilephone":"17512541274", "pwd":"123456789123456789", "nickname":"${nickname1}"}</t>
+    <t>{"mobilephone": "17512541274", "pwd": "123456789123456789", "regname": "${nickname1}"}</t>
   </si>
   <si>
     <t>123456789123456789</t>
@@ -142,10 +142,10 @@
     <t>注册失败，手机格式不正确</t>
   </si>
   <si>
-    <t>{"mobilephone":"123", "pwd":"123456", "nickname":"${nickname1}"}</t>
-  </si>
-  <si>
-    <t>{"status":"0", "code":"20109", "data":"null", "msg":"手机号码格式不正确"}</t>
+    <t>{"mobilephone": "123", "pwd": "123456", "regname": "${nickname1}"}</t>
+  </si>
+  <si>
+    <t>{"status": "0", "code": "20109", "data": "null", "msg": "手机号码格式不正确"}</t>
   </si>
   <si>
     <t>手机号码格式不正确</t>
@@ -154,10 +154,10 @@
     <t>注册失败，手机号码已被注册</t>
   </si>
   <si>
-    <t>{"mobilephone":"17512541270", "pwd":"123456", "nickname":"${nickname1}"}</t>
-  </si>
-  <si>
-    <t>{"status":"0", "code":"20110", "data":"null", "msg":"手机号码已被注册"}</t>
+    <t>{"mobilephone": "17512541270", "pwd": "123456", "regname": "${nickname1}"}</t>
+  </si>
+  <si>
+    <t>{"status": "0", "code": "20110", "data": "null", "msg": "手机号码已被注册"}</t>
   </si>
   <si>
     <t>手机号码已被注册</t>
@@ -172,31 +172,28 @@
     <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
   </si>
   <si>
-    <t>{"mobilephone":"17512541270", "pwd":"123456"}</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>登陆失败，手机号码为空</t>
   </si>
   <si>
-    <t>{"mobilephone":"None", "pwd":"123456"}</t>
+    <t>{"pwd": "123456"}</t>
   </si>
   <si>
     <t>登陆失败，密码为空</t>
   </si>
   <si>
-    <t>{"mobilephone":"17512541270", "pwd":"None"}</t>
+    <t>{"mobilephone": "17512541270"}</t>
   </si>
   <si>
     <t>登陆失败，用户名或者密码错误</t>
   </si>
   <si>
-    <t>{"mobilephone":"17512541270", "pwd":"123457"}</t>
-  </si>
-  <si>
-    <t>{"status":"0", "code":"20111", "data":"null", "msg":"用户名或者密码错误"}</t>
+    <t>{"mobilephone": "17512541270", "pwd": "123457"}</t>
+  </si>
+  <si>
+    <t>{"status": "0", "code": "20111", "data": "null", "msg": "用户名或者密码错误"}</t>
   </si>
   <si>
     <t>用户名或者密码错误</t>
@@ -214,22 +211,22 @@
     <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
   </si>
   <si>
-    <t>{"mobilephone":"17512541270", "amount":"500"}</t>
+    <t>{"mobilephone": "17512541270", "amount": "500"}</t>
   </si>
   <si>
     <t>充值失败，手机号码为空</t>
   </si>
   <si>
-    <t>{"mobilephone":"null", "amount":"500"}</t>
+    <t>{"amount": "500"}</t>
   </si>
   <si>
     <t>充值失败，此手机号对应的会员不存在</t>
   </si>
   <si>
-    <t>{"mobilephone":"17512541000", "amount":"500"}</t>
-  </si>
-  <si>
-    <t>{"status":"0", "code":"20104", "data":"null", "msg":"此手机号对应的会员不存在"}</t>
+    <t>{"mobilephone": "17512541000", "amount": "500"}</t>
+  </si>
+  <si>
+    <t>{"status": "0", "code": "20104", "data": "null", "msg": "此手机号对应的会员不存在"}</t>
   </si>
   <si>
     <t>此手机号对应的会员不存在</t>
@@ -238,10 +235,10 @@
     <t>充值失败，手机格式不正确</t>
   </si>
   <si>
-    <t>{"mobilephone":"123", "amount":"500"}</t>
-  </si>
-  <si>
-    <t>{"status":"0", "code":"20109", "data":"null", "msg":"手机格式不正确"}</t>
+    <t>{"mobilephone": "123", "amount": "500"}</t>
+  </si>
+  <si>
+    <t>{"status": "0", "code": "20109", "data": "null", "msg": "手机格式不正确"}</t>
   </si>
   <si>
     <t>手机格式不正确</t>
@@ -250,10 +247,7 @@
     <t>充值失败，充值额度为空</t>
   </si>
   <si>
-    <t>{"mobilephone":"17512541270", "amount":"None"}</t>
-  </si>
-  <si>
-    <t>{"status":"0", "code":"20115", "data":"null", "msg":"请输入金额"}</t>
+    <t>{"status": "0", "code": "20115", "data": "null", "msg": "请输入金额"}</t>
   </si>
   <si>
     <t>请输入金额</t>
@@ -262,10 +256,10 @@
     <t>充值失败，输入金额小数超过两位</t>
   </si>
   <si>
-    <t>{"mobilephone":"17512541270", "amount":"500.123"}</t>
-  </si>
-  <si>
-    <t>{"status":"0", "code":"20116", "data":"null", "msg":"输入金额的金额小数不能超过两位"}</t>
+    <t>{"mobilephone": "17512541270", "amount": "500.123"}</t>
+  </si>
+  <si>
+    <t>{"status": "0", "code": "20116", "data": "null", "msg": "输入金额的金额小数不能超过两位"}</t>
   </si>
   <si>
     <t>输入金额的金额小数不能超过两位</t>
@@ -274,10 +268,10 @@
     <t>充值失败，充值额度低于0(负数)</t>
   </si>
   <si>
-    <t>{"mobilephone":"17512541270", "amount":"-5"}</t>
-  </si>
-  <si>
-    <t>{"status":"0", "code":"20117", "data":"null", "msg":"请输入范围在 0 到 50 万之间的正数"}</t>
+    <t>{"mobilephone": "17512541270", "amount": "-5"}</t>
+  </si>
+  <si>
+    <t>{"status": "0", "code": "20117", "data": "null", "msg": "请输入范围在 0 到 50 万之间的正数"}</t>
   </si>
   <si>
     <t>请输入范围在 0 到 50 万之间的正数</t>
@@ -286,16 +280,16 @@
     <t>充值失败，充值额度高于50万</t>
   </si>
   <si>
-    <t>{"mobilephone":"17512541270", "amount":"500001"}</t>
+    <t>{"mobilephone": "17512541270", "amount": "500001"}</t>
   </si>
   <si>
     <t>充值失败，充值额度输入非数字</t>
   </si>
   <si>
-    <t>{"mobilephone":"17512541270", "amount":"abc"}</t>
-  </si>
-  <si>
-    <t>{"status":"0", "code":"20118", "data":"null", "msg":"请输入数字"}</t>
+    <t>{"mobilephone": "17512541270", "amount": "abc"}</t>
+  </si>
+  <si>
+    <t>{"status": "0", "code": "20118", "data": "null", "msg": "请输入数字"}</t>
   </si>
   <si>
     <t>abc</t>
@@ -313,64 +307,37 @@
     <t>http://test.lemonban.com/futureloan/mvc/api/member/withdraw</t>
   </si>
   <si>
-    <t>{"status":"None", "code":"10001", "data":"None", "msg":"成功"}</t>
-  </si>
-  <si>
     <t>取现失败，手机号码为空</t>
   </si>
   <si>
-    <t>{"mobilephone":"None", "amount":"500"}</t>
-  </si>
-  <si>
-    <t>{"status":"None", "code":"20103", "data":"null", "msg":"参数错误：参数不能为空"}</t>
-  </si>
-  <si>
     <t>取现失败，此手机号对应的会员不存在</t>
   </si>
   <si>
-    <t>{"status":"None", "code":"20104", "data":"null", "msg":"此手机号对应的会员不存在"}</t>
-  </si>
-  <si>
     <t>取现失败，手机号码格式不正确</t>
   </si>
   <si>
-    <t>{"status":"None", "code":"20109", "data":"null", "msg":"手机号码格式不正确"}</t>
-  </si>
-  <si>
     <t>取现失败，请输入金额</t>
   </si>
   <si>
-    <t>{"status":"None", "code":"20115", "data":"null", "msg":"请输入金额"}</t>
-  </si>
-  <si>
     <t>取现失败，输入金额小数超过两位</t>
   </si>
   <si>
-    <t>{"status":"None", "code":"20116", "data":"null", "msg":"输入金额的金额小数不能超过两位"}</t>
-  </si>
-  <si>
     <t>取现失败，充值额度低于0(负数)</t>
   </si>
   <si>
-    <t>{"status":"None", "code":"20117", "data":"null", "msg":"请输入范围在 0 到 50 万之间的正数"}</t>
-  </si>
-  <si>
     <t>取现失败，充值额度高于50万</t>
   </si>
   <si>
     <t>取现失败，取现额度输入非数字</t>
   </si>
   <si>
-    <t>{"status":"None", "code":"20118", "data":"null", "msg":"请输入数字"}</t>
-  </si>
-  <si>
     <t>取现失败，余额不足，请修改提现额度</t>
   </si>
   <si>
-    <t>{"mobilephone":"17512541270", "amount":"10000"}</t>
-  </si>
-  <si>
-    <t>{"status":"None", "code":"20119", "data":"null", "msg":"余额不足，请修改提现额度"}</t>
+    <t>{"mobilephone": "17512541270", "amount": "10000"}</t>
+  </si>
+  <si>
+    <t>{"status": "0", "code": "20119", "data": "null", "msg": "余额不足，请修改提现额度"}</t>
   </si>
   <si>
     <t>余额不足，请修改提现额度</t>
@@ -468,10 +435,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -485,74 +452,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,24 +473,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,8 +488,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,9 +586,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,13 +614,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,73 +686,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,13 +716,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,37 +764,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,7 +776,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,7 +788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,16 +808,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -866,16 +833,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,26 +882,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,145 +913,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,7 +1075,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1470,8 +1437,8 @@
   <sheetPr/>
   <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1481,9 +1448,9 @@
     <col min="3" max="3" width="45.75" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="7.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="66" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="5" customWidth="1"/>
     <col min="7" max="7" width="93.75" style="5" customWidth="1"/>
-    <col min="8" max="8" width="33.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="100.875" style="5" customWidth="1"/>
     <col min="9" max="9" width="12.625" style="5" customWidth="1"/>
     <col min="10" max="10" width="20.375" style="5" customWidth="1"/>
     <col min="11" max="12" width="14.875" style="5" customWidth="1"/>
@@ -1929,7 +1896,7 @@
         <v>50</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
         <v>21</v>
@@ -1941,7 +1908,7 @@
         <v>123456</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M10" s="5">
         <v>1</v>
@@ -1964,7 +1931,7 @@
         <v>48</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>48</v>
@@ -1976,7 +1943,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
         <v>29</v>
@@ -1985,7 +1952,7 @@
         <v>123456</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M11" s="5">
         <v>0</v>
@@ -2008,7 +1975,7 @@
         <v>48</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>48</v>
@@ -2020,7 +1987,7 @@
         <v>50</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
         <v>29</v>
@@ -2029,7 +1996,7 @@
         <v>17512541270</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
@@ -2052,7 +2019,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>48</v>
@@ -2064,10 +2031,10 @@
         <v>50</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" t="s">
         <v>58</v>
-      </c>
-      <c r="H13" t="s">
-        <v>59</v>
       </c>
       <c r="I13" s="5">
         <v>17512541270</v>
@@ -2076,7 +2043,7 @@
         <v>123457</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M13" s="5">
         <v>0</v>
@@ -2088,7 +2055,7 @@
         <v>22</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2096,22 +2063,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" t="s">
         <v>64</v>
-      </c>
-      <c r="G14" t="s">
-        <v>65</v>
       </c>
       <c r="H14" t="s">
         <v>21</v>
@@ -2120,7 +2087,7 @@
         <v>17512541270</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14" s="5">
         <v>500</v>
@@ -2143,29 +2110,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
         <v>66</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" t="s">
-        <v>67</v>
       </c>
       <c r="H15" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15" s="5">
         <v>500</v>
@@ -2188,31 +2154,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>69</v>
-      </c>
-      <c r="H16" t="s">
-        <v>70</v>
       </c>
       <c r="I16" s="5">
         <v>17512541000</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16" s="5">
         <v>500</v>
@@ -2227,7 +2193,7 @@
         <v>22</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2235,31 +2201,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>73</v>
-      </c>
-      <c r="H17" t="s">
-        <v>74</v>
       </c>
       <c r="I17" s="5">
         <v>123</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K17" s="5">
         <v>500</v>
@@ -2274,7 +2240,7 @@
         <v>22</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2282,31 +2248,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" t="s">
         <v>76</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" t="s">
-        <v>78</v>
       </c>
       <c r="I18" s="5">
         <v>17512541270</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M18" s="5">
         <v>0</v>
@@ -2318,7 +2284,7 @@
         <v>22</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2326,31 +2292,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" t="s">
         <v>80</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" t="s">
-        <v>82</v>
       </c>
       <c r="I19" s="5">
         <v>17512541270</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19" s="5">
         <v>500.123</v>
@@ -2365,7 +2331,7 @@
         <v>22</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2373,31 +2339,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" t="s">
         <v>84</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" t="s">
-        <v>86</v>
       </c>
       <c r="I20" s="5">
         <v>17512541270</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K20" s="5">
         <v>-5</v>
@@ -2412,7 +2378,7 @@
         <v>22</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2420,31 +2386,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I21" s="5">
         <v>17512541270</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K21" s="5">
         <v>500001</v>
@@ -2459,7 +2425,7 @@
         <v>22</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2467,34 +2433,34 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" t="s">
         <v>90</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" t="s">
-        <v>92</v>
       </c>
       <c r="I22" s="5">
         <v>17512541270</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M22" s="5">
         <v>0</v>
@@ -2506,7 +2472,7 @@
         <v>22</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2514,25 +2480,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I23" s="5">
         <v>17512541270</v>
@@ -2558,25 +2524,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="G24" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="K24" s="5">
         <v>500</v>
@@ -2599,25 +2565,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="G25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" t="s">
         <v>69</v>
-      </c>
-      <c r="H25" t="s">
-        <v>103</v>
       </c>
       <c r="I25" s="5">
         <v>17512541000</v>
@@ -2635,7 +2601,7 @@
         <v>22</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2643,25 +2609,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H26" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="I26" s="5">
         <v>123</v>
@@ -2687,25 +2653,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="H27" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="I27" s="5">
         <v>17512541270</v>
@@ -2720,7 +2686,7 @@
         <v>22</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2728,25 +2694,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="G28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="I28" s="5">
         <v>17512541270</v>
@@ -2764,7 +2730,7 @@
         <v>22</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2772,25 +2738,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="I29" s="5">
         <v>17512541270</v>
@@ -2808,7 +2774,7 @@
         <v>22</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2816,25 +2782,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="I30" s="5">
         <v>17512541270</v>
@@ -2852,7 +2818,7 @@
         <v>22</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2860,31 +2826,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="I31" s="5">
         <v>17512541270</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M31" s="5">
         <v>0</v>
@@ -2896,7 +2862,7 @@
         <v>22</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2904,25 +2870,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="H32" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="I32" s="5">
         <v>17512541270</v>
@@ -2940,7 +2906,7 @@
         <v>22</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2954,7 +2920,7 @@
         <v>10001</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>23</v>
@@ -2975,7 +2941,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -3003,7 +2969,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -3031,7 +2997,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -3069,7 +3035,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -3097,7 +3063,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -3150,7 +3116,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -3218,7 +3184,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -3256,7 +3222,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:1">
@@ -3289,7 +3255,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -3364,8 +3330,8 @@
     <hyperlink ref="F19" r:id="rId3" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
     <hyperlink ref="F20" r:id="rId3" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
     <hyperlink ref="F21" r:id="rId3" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
+    <hyperlink ref="F22" r:id="rId3" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
     <hyperlink ref="F23" r:id="rId4" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw"/>
-    <hyperlink ref="F22" r:id="rId3" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge"/>
     <hyperlink ref="F24" r:id="rId4" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw"/>
     <hyperlink ref="F25" r:id="rId4" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw"/>
     <hyperlink ref="F26" r:id="rId4" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw"/>
@@ -3479,10 +3445,10 @@
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I2" s="1">
         <v>17512541270</v>
@@ -3523,10 +3489,10 @@
         <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I3" s="1">
         <v>17512541271</v>
@@ -3535,7 +3501,7 @@
         <v>123456</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -3570,10 +3536,10 @@
         <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>22</v>
@@ -3582,7 +3548,7 @@
         <v>123456</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3617,10 +3583,10 @@
         <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I5" s="1">
         <v>17512541272</v>
@@ -3629,7 +3595,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3664,10 +3630,10 @@
         <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I6" s="1">
         <v>17512541273</v>
@@ -3676,7 +3642,7 @@
         <v>123</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3711,10 +3677,10 @@
         <v>19</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I7" s="1">
         <v>17512541274</v>
@@ -3723,7 +3689,7 @@
         <v>39</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3758,10 +3724,10 @@
         <v>19</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I8" s="1">
         <v>123</v>
@@ -3770,7 +3736,7 @@
         <v>123456</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3805,10 +3771,10 @@
         <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I9" s="1">
         <v>17512541270</v>
@@ -3817,7 +3783,7 @@
         <v>123456</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3852,7 +3818,7 @@
         <v>50</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="I10" s="1">
         <v>17512541270</v>
@@ -3861,7 +3827,7 @@
         <v>123456</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
@@ -3884,7 +3850,7 @@
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>48</v>
@@ -3896,13 +3862,13 @@
         <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="J11" s="1">
         <v>123456</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3925,7 +3891,7 @@
         <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>48</v>
@@ -3937,13 +3903,13 @@
         <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="I12" s="1">
         <v>17512541270</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3966,7 +3932,7 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>48</v>
@@ -3978,7 +3944,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="I13" s="1">
         <v>17512541270</v>
@@ -3987,7 +3953,7 @@
         <v>123457</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3999,7 +3965,7 @@
         <v>22</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -4007,25 +3973,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="I14" s="1">
         <v>17512541270</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14" s="1">
         <v>500</v>
@@ -4048,25 +4014,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15" s="1">
         <v>500</v>
@@ -4089,25 +4055,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="I16" s="1">
         <v>17512541000</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16" s="1">
         <v>500</v>
@@ -4122,7 +4088,7 @@
         <v>22</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -4130,25 +4096,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="I17" s="1">
         <v>123</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K17" s="1">
         <v>500</v>
@@ -4163,7 +4129,7 @@
         <v>22</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -4171,25 +4137,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="I18" s="1">
         <v>17512541270</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -4201,7 +4167,7 @@
         <v>22</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -4209,25 +4175,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="I19" s="1">
         <v>17512541270</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19" s="1">
         <v>500.123</v>
@@ -4242,7 +4208,7 @@
         <v>22</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -4250,25 +4216,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="I20" s="1">
         <v>17512541270</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K20" s="1">
         <v>-5</v>
@@ -4283,7 +4249,7 @@
         <v>22</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -4291,25 +4257,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="I21" s="1">
         <v>17512541270</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K21" s="1">
         <v>500001</v>
@@ -4324,7 +4290,7 @@
         <v>22</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -4332,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="I22" s="1">
         <v>17512541270</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -4365,7 +4331,7 @@
         <v>22</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -4373,19 +4339,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="I23" s="1">
         <v>17512541270</v>
@@ -4405,19 +4371,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="K24" s="1">
         <v>500</v>
@@ -4437,19 +4403,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="I25" s="1">
         <v>17512541000</v>
@@ -4464,7 +4430,7 @@
         <v>22</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -4472,19 +4438,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="I26" s="1">
         <v>123</v>
@@ -4507,19 +4473,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="I27" s="1">
         <v>17512541270</v>
@@ -4531,7 +4497,7 @@
         <v>22</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -4539,19 +4505,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C28" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="I28" s="1">
         <v>17512541270</v>
@@ -4566,7 +4532,7 @@
         <v>22</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -4574,19 +4540,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C29" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="I29" s="1">
         <v>17512541270</v>
@@ -4601,7 +4567,7 @@
         <v>22</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -4609,19 +4575,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="I30" s="1">
         <v>17512541270</v>
@@ -4636,7 +4602,7 @@
         <v>22</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -4644,25 +4610,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="I31" s="1">
         <v>17512541270</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N31" s="1">
         <v>20118</v>
@@ -4671,7 +4637,7 @@
         <v>22</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -4679,19 +4645,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="I32" s="1">
         <v>17512541270</v>
@@ -4706,7 +4672,7 @@
         <v>22</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:1">
